--- a/Documentation/Anova.xlsx
+++ b/Documentation/Anova.xlsx
@@ -5,28 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCII\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\Desktop\HCII\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FCD538-7A8C-4C4D-BAD1-3BE940091C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3000C9CA-93C8-4008-8815-36FDE004E492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{CFECBBED-8307-4365-B9C2-03E59BC9A0C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CFECBBED-8307-4365-B9C2-03E59BC9A0C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>TUIO</t>
   </si>
@@ -53,15 +64,6 @@
   </si>
   <si>
     <t>Variance</t>
-  </si>
-  <si>
-    <t>Column 1</t>
-  </si>
-  <si>
-    <t>Column 2</t>
-  </si>
-  <si>
-    <t>Column 3</t>
   </si>
   <si>
     <t>ANOVA</t>
@@ -161,10 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -182,6 +185,1332 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'Mediapipe', 'YOLO' by 'TUIO'</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="27000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mediapipe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B23-416A-83DA-B51C61000326}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>YOLO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B23-416A-83DA-B51C61000326}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:gapDepth val="53"/>
+        <c:shape val="box"/>
+        <c:axId val="659180064"/>
+        <c:axId val="659181144"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="659180064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TUIO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659181144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="659181144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="659180064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="291">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:tint val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg2">
+          <a:lumMod val="75000"/>
+          <a:alpha val="27000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158116</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Scatter. 'Mediapipe', 'YOLO' by 'TUIO'&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203C7F14-FAAC-92A5-3065-ABFF56B930B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,12 +1809,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A600C985-7F81-4714-8BF9-AF37641518B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561F2D56-594F-442C-962B-AAB5E2F4DEAD}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -500,152 +1827,164 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E5">
+      <c r="C6" s="1">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.1111111111111143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>42</v>
-      </c>
-      <c r="D6">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="E6">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.0277777777777786</v>
+      <c r="C7" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.2222222222222223</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.1944444444444429</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="B12" s="1">
+        <v>39.407407407407405</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19.703703703703702</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.1170568561872889</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.40374216188495599</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.4028261053501945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="B13" s="1">
+        <v>66.444444444444457</v>
+      </c>
+      <c r="C13" s="1">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.768518518518519</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>5.8518518518518761</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2.925925925925938</v>
-      </c>
-      <c r="E12">
-        <v>0.41253263707571974</v>
-      </c>
-      <c r="F12">
-        <v>0.66657667320149616</v>
-      </c>
-      <c r="G12">
-        <v>3.4028261053501945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>170.22222222222223</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>7.0925925925925926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <v>176.0740740740741</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="2">
+        <v>105.85185185185186</v>
+      </c>
+      <c r="C15" s="2">
         <v>26</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -657,7 +1996,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -692,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -714,7 +2053,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -744,10 +2083,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -758,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -766,10 +2105,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -778,11 +2117,11 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>AVERAGE(A2:A10)</f>
-        <v>6.666666666666667</v>
+        <v>6.2222222222222223</v>
       </c>
       <c r="B11">
         <f>AVERAGE(B2:B10)</f>
-        <v>8.6666666666666661</v>
+        <v>7.5555555555555554</v>
       </c>
       <c r="C11">
         <f>AVERAGE(C2:C10)</f>
@@ -791,5 +2130,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>